--- a/FDA Tables XLSX/Appendix 7. Nutritional Goals for Age-2020 Dietary Guidelines .xlsx
+++ b/FDA Tables XLSX/Appendix 7. Nutritional Goals for Age-2020 Dietary Guidelines .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sebastian/Documents/GitHub/Data Visualization Bootcamp/Sebastian Homework/Group Project - 1/Healthy-Restaurants/FDA Tables XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713D9D5-8424-1448-940C-634B7CEBC171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D8A22A-6A77-4B47-8329-5A4433D86B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Female</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>less than</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Groupe</t>
   </si>
 </sst>
 </file>
@@ -314,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -351,12 +357,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -399,41 +485,65 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N1" sqref="N1:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -793,63 +903,63 @@
     <col min="9" max="10" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="N1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25">
+        <v>4</v>
+      </c>
+      <c r="G2" s="25">
+        <v>5</v>
+      </c>
+      <c r="H2" s="25">
+        <v>6</v>
+      </c>
+      <c r="I2" s="25">
+        <v>7</v>
+      </c>
+      <c r="J2" s="25">
+        <v>8</v>
+      </c>
+      <c r="N2" s="29">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="P2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -878,8 +988,17 @@
       <c r="J3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="29">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -896,8 +1015,17 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="29">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -912,22 +1040,40 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="29">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="N6" s="29">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -956,8 +1102,17 @@
       <c r="J7" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="29">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -986,11 +1141,20 @@
       <c r="J8" s="3">
         <v>22.5</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="29">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -1019,8 +1183,17 @@
       <c r="J9" s="6">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.15">
+      <c r="N9" s="31">
+        <v>8</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
@@ -1048,11 +1221,11 @@
       <c r="J10" s="8">
         <v>55</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
@@ -1081,39 +1254,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="34" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <v>0.1</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>0.1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>0.1</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>0.1</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>0.1</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="21">
         <v>0.1</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="21">
         <v>0.1</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="21">
         <v>0.1</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1141,43 +1314,43 @@
       <c r="J13" s="8">
         <v>30</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <v>0.1</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>0.1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>0.1</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>0.1</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>0.1</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="21">
         <v>0.1</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <v>0.1</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="21">
         <v>0.1</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1206,7 +1379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1236,17 +1409,17 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
@@ -1484,28 +1657,28 @@
       <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>1.6</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>1.8</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="19">
         <v>1.8</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <v>1.8</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="19">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1539,17 +1712,17 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B29" s="8" t="s">

--- a/FDA Tables XLSX/Appendix 7. Nutritional Goals for Age-2020 Dietary Guidelines .xlsx
+++ b/FDA Tables XLSX/Appendix 7. Nutritional Goals for Age-2020 Dietary Guidelines .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sebastian/Documents/GitHub/Data Visualization Bootcamp/Sebastian Homework/Group Project - 1/Healthy-Restaurants/FDA Tables XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4580BE46-1BBC-FF40-B4DE-BF722B67C1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68387A0-C54B-1C4B-8EC6-06040F791407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Female</t>
   </si>
@@ -242,15 +242,21 @@
   <si>
     <t>"20-35"</t>
   </si>
+  <si>
+    <t>https://dietarysupplementdatabase.usda.nih.gov/ingredient_calculator/help.php#:~:text=Vitamin%20A%3A%201%20IU%20is,mg%20of%20dl%2Dalpha%2Dtocopherol</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425178/#:~:text=This%20includes%20monosaccharides%2C%20disaccharides%20and,as%20added%20sugars%20%5B10%5D.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -279,6 +285,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,11 +426,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -493,7 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -505,17 +525,27 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -856,7 +886,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1045,7 +1075,7 @@
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" thickTop="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="17">
@@ -1194,7 +1224,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="14">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="21">
@@ -1282,8 +1312,8 @@
       <c r="J13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>42</v>
+      <c r="K13" s="36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="28">
@@ -1376,7 +1406,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1">
+    <row r="17" spans="2:11" ht="15" thickBot="1">
       <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
@@ -1389,8 +1419,8 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="2:10" ht="15" thickTop="1">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:11" ht="15" thickTop="1">
+      <c r="B18" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="22">
@@ -1418,8 +1448,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="14">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="2:11" ht="14">
+      <c r="B19" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="21">
@@ -1447,7 +1477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:11" ht="14">
       <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1506,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:11" ht="14">
       <c r="B21" s="21" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1535,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="14">
+    <row r="22" spans="2:11" ht="14">
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
@@ -1534,8 +1564,8 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="14">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="2:11" ht="14">
+      <c r="B23" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="22">
@@ -1563,7 +1593,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="14">
+    <row r="24" spans="2:11" ht="14">
       <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
@@ -1592,7 +1622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="14">
+    <row r="25" spans="2:11" ht="14">
       <c r="B25" s="21" t="s">
         <v>26</v>
       </c>
@@ -1621,7 +1651,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="14">
+    <row r="26" spans="2:11" ht="14">
       <c r="B26" s="21" t="s">
         <v>27</v>
       </c>
@@ -1650,7 +1680,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="14">
+    <row r="27" spans="2:11" ht="14">
       <c r="B27" s="21" t="s">
         <v>28</v>
       </c>
@@ -1679,7 +1709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1">
+    <row r="28" spans="2:11" ht="15" thickBot="1">
       <c r="B28" s="25" t="s">
         <v>29</v>
       </c>
@@ -1692,8 +1722,8 @@
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickTop="1">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="2:11" ht="15" thickTop="1">
+      <c r="B29" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="22">
@@ -1720,8 +1750,11 @@
       <c r="J29" s="22">
         <v>900</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="14">
+      <c r="K29" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="14">
       <c r="B30" s="21" t="s">
         <v>31</v>
       </c>
@@ -1750,7 +1783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="14">
+    <row r="31" spans="2:11" ht="14">
       <c r="B31" s="21" t="s">
         <v>32</v>
       </c>
@@ -1779,7 +1812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="14">
+    <row r="32" spans="2:11" ht="14">
       <c r="B32" s="21" t="s">
         <v>34</v>
       </c>
@@ -2041,6 +2074,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K29" r:id="rId1" location=":~:text=Vitamin%20A%3A%201%20IU%20is,mg%20of%20dl%2Dalpha%2Dtocopherol" display="https://dietarysupplementdatabase.usda.nih.gov/ingredient_calculator/help.php - :~:text=Vitamin%20A%3A%201%20IU%20is,mg%20of%20dl%2Dalpha%2Dtocopherol" xr:uid="{9A48F5EF-9749-314B-B2B9-2706E3F0FEFD}"/>
+    <hyperlink ref="K13" r:id="rId2" location=":~:text=This%20includes%20monosaccharides%2C%20disaccharides%20and,as%20added%20sugars%20%5B10%5D." display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425178/ - :~:text=This%20includes%20monosaccharides%2C%20disaccharides%20and,as%20added%20sugars%20%5B10%5D." xr:uid="{8669C788-495A-804F-811A-4E211F89231C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>